--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3669.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3669.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.361965371795915</v>
+        <v>0.7092821002006531</v>
       </c>
       <c r="B1">
-        <v>2.266198431311675</v>
+        <v>0.6446579694747925</v>
       </c>
       <c r="C1">
-        <v>6.753808588692386</v>
+        <v>0.4804243147373199</v>
       </c>
       <c r="D1">
-        <v>3.09781145840961</v>
+        <v>0.4517580270767212</v>
       </c>
       <c r="E1">
-        <v>0.9784888031401016</v>
+        <v>0.4746173620223999</v>
       </c>
     </row>
   </sheetData>
